--- a/testData_cucumber/UI/BAU_Regression/DataRepo.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/DataRepo.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -91,12 +91,18 @@
   </si>
   <si>
     <t>Login for TestID</t>
+  </si>
+  <si>
+    <t>TC001_Skill Edit</t>
+  </si>
+  <si>
+    <t>TC002_Education Edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +130,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,6 +189,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,24 +473,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="99.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="96.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="99.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="2" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="2" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.109375" style="2" collapsed="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -616,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -624,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -632,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -640,12 +656,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
